--- a/2018/Sul/RS/resultado.xlsx
+++ b/2018/Sul/RS/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:J423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>DS_GENERO</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,6 +674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -794,6 +874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +1024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,6 +1074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,6 +1174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,6 +1274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1194,6 +1374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1274,6 +1474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1314,6 +1524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1354,6 +1574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,6 +1674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1514,6 +1774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1554,6 +1824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,6 +1874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1634,6 +1924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1674,6 +1974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1714,6 +2024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1754,6 +2074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,6 +2124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1834,6 +2174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1874,6 +2224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1914,6 +2274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1954,6 +2324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1994,6 +2374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2034,6 +2424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2074,6 +2474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2114,6 +2524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2154,6 +2574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2194,6 +2624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2234,6 +2674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2274,6 +2724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2314,6 +2774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2354,6 +2824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2394,6 +2874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2434,6 +2924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2474,6 +2974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2514,6 +3024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2554,6 +3074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2594,6 +3124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2634,6 +3174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2674,6 +3224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2714,6 +3274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2754,6 +3324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2794,6 +3374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2834,6 +3424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2874,6 +3474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2914,6 +3524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2954,6 +3574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2994,6 +3624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3034,6 +3674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3074,6 +3724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3114,6 +3774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3154,6 +3824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3194,6 +3874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3234,6 +3924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3274,6 +3974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3314,6 +4024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3354,6 +4074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3394,6 +4124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3434,6 +4174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3474,6 +4224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3514,6 +4274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3554,6 +4324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3594,6 +4374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3634,6 +4424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3674,6 +4474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3714,6 +4524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3754,6 +4574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3794,6 +4624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3834,6 +4674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3874,6 +4724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3914,6 +4774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3954,6 +4824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3994,6 +4874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4034,6 +4924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4074,6 +4974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4114,6 +5024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4154,6 +5074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4194,6 +5124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4234,6 +5174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4274,6 +5224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4314,6 +5274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4354,6 +5324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4394,6 +5374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4434,6 +5424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4474,6 +5474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4514,6 +5524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4554,6 +5574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4594,6 +5624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4634,6 +5674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4674,6 +5724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4714,6 +5774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4754,6 +5824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4794,6 +5874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4834,6 +5924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4874,6 +5974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4914,6 +6024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4954,6 +6074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4994,6 +6124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5034,6 +6174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5074,6 +6224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5114,6 +6274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5154,6 +6324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5194,6 +6374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5234,6 +6424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5274,6 +6474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5314,6 +6524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5354,6 +6574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5394,6 +6624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5434,6 +6674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5474,6 +6724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5514,6 +6774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5554,6 +6824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5594,6 +6874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5634,6 +6924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5674,6 +6974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5714,6 +7024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5754,6 +7074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5794,6 +7124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5834,6 +7174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5874,6 +7224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5914,6 +7274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5954,6 +7324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5994,6 +7374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6034,6 +7424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6074,6 +7474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6114,6 +7524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6154,6 +7574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6194,6 +7624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6234,6 +7674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6274,6 +7724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6314,6 +7774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6354,6 +7824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6394,6 +7874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6434,6 +7924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6474,6 +7974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6514,6 +8024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6554,6 +8074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6594,6 +8124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6634,6 +8174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6674,6 +8224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6714,6 +8274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6754,6 +8324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6794,6 +8374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6834,6 +8424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6874,6 +8474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6914,6 +8524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6954,6 +8574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6994,6 +8624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7034,6 +8674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7074,6 +8724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7114,6 +8774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7154,6 +8824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7194,6 +8874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7234,6 +8924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7274,6 +8974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7314,6 +9024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7354,6 +9074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7394,6 +9124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7434,6 +9174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7474,6 +9224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7514,6 +9274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7554,6 +9324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7594,6 +9374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7634,6 +9424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7674,6 +9474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7714,6 +9524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7754,6 +9574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7794,6 +9624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7834,6 +9674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7874,6 +9724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7914,6 +9774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7954,6 +9824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7994,6 +9874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8034,6 +9924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8074,6 +9974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8114,6 +10024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8154,6 +10074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8194,6 +10124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8234,6 +10174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8274,6 +10224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8314,6 +10274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8354,6 +10324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8394,6 +10374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8434,6 +10424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8474,6 +10474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8514,6 +10524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8554,6 +10574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8594,6 +10624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8634,6 +10674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8674,6 +10724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8714,6 +10774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8754,6 +10824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8794,6 +10874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8834,6 +10924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8874,6 +10974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8914,6 +11024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8954,6 +11074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8994,6 +11124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -9034,6 +11174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -9074,6 +11224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -9114,6 +11274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -9154,6 +11324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9194,6 +11374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -9234,6 +11424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -9274,6 +11474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -9314,6 +11524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -9354,6 +11574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -9394,6 +11624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9434,6 +11674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -9474,6 +11724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -9514,6 +11774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -9554,6 +11824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -9594,6 +11874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9634,6 +11924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9674,6 +11974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9714,6 +12024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9754,6 +12074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9794,6 +12124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9834,6 +12174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9874,6 +12224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9914,6 +12274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9954,6 +12324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9994,6 +12374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -10034,6 +12424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -10074,6 +12474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -10114,6 +12524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -10154,6 +12574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -10194,6 +12624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -10234,6 +12674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -10274,6 +12724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -10314,6 +12774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -10354,6 +12824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -10394,6 +12874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -10434,6 +12924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -10474,6 +12974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -10514,6 +13024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -10554,6 +13074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -10594,6 +13124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -10634,6 +13174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -10674,6 +13224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10714,6 +13274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -10754,6 +13324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10794,6 +13374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10834,6 +13424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10874,6 +13474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10914,6 +13524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10954,6 +13574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10994,6 +13624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -11034,6 +13674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -11074,6 +13724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -11114,6 +13774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -11154,6 +13824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -11194,6 +13874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -11234,6 +13924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -11274,6 +13974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -11314,6 +14024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -11354,6 +14074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -11394,6 +14124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -11434,6 +14174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -11474,6 +14224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -11514,6 +14274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -11554,6 +14324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -11594,6 +14374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -11634,6 +14424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -11674,6 +14474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -11714,6 +14524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -11754,6 +14574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -11794,6 +14624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -11834,6 +14674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11874,6 +14724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11914,6 +14774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11954,6 +14824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11994,6 +14874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -12034,6 +14924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12074,6 +14974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -12114,6 +15024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -12154,6 +15074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -12194,6 +15124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -12234,6 +15174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -12274,6 +15224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -12314,6 +15274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12354,6 +15324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -12394,6 +15374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -12434,6 +15424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -12474,6 +15474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -12514,6 +15524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -12554,6 +15574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -12594,6 +15624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -12634,6 +15674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -12674,6 +15724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -12714,6 +15774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -12754,6 +15824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -12794,6 +15874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -12834,6 +15924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -12874,6 +15974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -12914,6 +16024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -12954,6 +16074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12994,6 +16124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -13034,6 +16174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -13074,6 +16224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -13114,6 +16274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -13154,6 +16324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -13194,6 +16374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -13234,6 +16424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -13274,6 +16474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -13314,6 +16524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -13354,6 +16574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -13394,6 +16624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -13434,6 +16674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -13474,6 +16724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -13514,6 +16774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -13554,6 +16824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -13594,6 +16874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -13634,6 +16924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -13674,6 +16974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -13714,6 +17024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -13754,6 +17074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -13794,6 +17124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -13834,6 +17174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -13874,6 +17224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -13914,6 +17274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -13954,6 +17324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -13994,6 +17374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -14034,6 +17424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -14074,6 +17474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -14114,6 +17524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -14154,6 +17574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -14194,6 +17624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -14234,6 +17674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -14274,6 +17724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -14314,6 +17774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -14354,6 +17824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -14394,6 +17874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -14434,6 +17924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14474,6 +17974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -14514,6 +18024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -14554,6 +18074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -14594,6 +18124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -14634,6 +18174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -14674,6 +18224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -14714,6 +18274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -14754,6 +18324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -14794,6 +18374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -14834,6 +18424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -14874,6 +18474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -14914,6 +18524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -14954,6 +18574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -14994,6 +18624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -15034,6 +18674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -15074,6 +18724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -15114,6 +18774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -15154,6 +18824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -15194,6 +18874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -15234,6 +18924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -15274,6 +18974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -15314,6 +19024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>SEPARADO(A) JUDICIALMENTE</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -15354,6 +19074,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -15394,6 +19124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -15434,6 +19174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -15474,6 +19224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -15514,6 +19274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -15554,6 +19324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -15594,6 +19374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -15634,6 +19424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -15674,6 +19474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -15714,6 +19524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -15754,6 +19574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -15794,6 +19624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -15834,6 +19674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -15874,6 +19724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -15914,6 +19774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -15954,6 +19824,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -15994,6 +19874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -16034,6 +19924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -16074,6 +19974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -16114,6 +20024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -16154,6 +20074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -16194,6 +20124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -16234,6 +20174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -16274,6 +20224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -16314,6 +20274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -16354,6 +20324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -16394,6 +20374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -16434,6 +20424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -16474,6 +20474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -16514,6 +20524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -16554,6 +20574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -16594,6 +20624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -16634,6 +20674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>VIÚVO(A)</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -16674,6 +20724,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -16714,6 +20774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -16754,6 +20824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -16794,6 +20874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -16834,6 +20924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -16874,6 +20974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -16914,6 +21024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -16954,6 +21074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -16994,6 +21124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -17034,6 +21174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -17074,6 +21224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -17114,6 +21274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -17154,6 +21324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -17194,6 +21374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -17234,6 +21424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -17274,6 +21474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -17314,6 +21524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -17352,6 +21572,16 @@
       <c r="H423" t="inlineStr">
         <is>
           <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
     </row>
